--- a/Eng.xlsx
+++ b/Eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamolchanoktangsri/Documents/jk-dorm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68EEA13-CC01-B648-A260-41E3514C6BC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3ECB60-DF42-7F4C-93C6-C02BE9E5960D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{97798DAE-DEA7-5343-96D1-A7F78021FB91}"/>
   </bookViews>
@@ -33,18 +33,9 @@
     <t>cost per water unit</t>
   </si>
   <si>
-    <t>electricity units of previous month</t>
-  </si>
-  <si>
     <t>current water units</t>
   </si>
   <si>
-    <t>current electricity units</t>
-  </si>
-  <si>
-    <t>cost per electricity</t>
-  </si>
-  <si>
     <t>RoomNumber</t>
   </si>
   <si>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>electricityPreviousMonth</t>
+  </si>
+  <si>
+    <t>costPerElectricity</t>
+  </si>
+  <si>
+    <t>electricityCurrent</t>
   </si>
 </sst>
 </file>
@@ -422,67 +422,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BCF65C-7774-B844-81DB-55FDE70C6C0F}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -494,195 +495,470 @@
         <v>300</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f>(D2-C2)*E2</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>300</v>
+        <v>2330</v>
       </c>
       <c r="H2">
-        <v>350</v>
+        <v>2380</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <f>(H2-G2)*I2</f>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L2">
-        <f>B2+F2+J2+K2</f>
-        <v>2650</v>
+        <f>(K2+J2+F2+B2)</f>
+        <v>3050</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D3">
         <v>300</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">(D3-C3)*E3</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>300</v>
+        <v>2331</v>
       </c>
       <c r="H3">
-        <v>350</v>
+        <v>2380</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J6" si="1">(H3-G3)*I3</f>
-        <v>400</v>
+        <f t="shared" ref="J3:J13" si="0">(H3-G3)*I3</f>
+        <v>343</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L3">
-        <f>B3+F3+J3+K3</f>
-        <v>2650</v>
+        <f t="shared" ref="L3:L13" si="1">(K3+J3+F3+B3)</f>
+        <v>3543</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D4">
         <v>300</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>2332</v>
+      </c>
+      <c r="H4">
+        <v>2380</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="G4">
-        <v>301</v>
-      </c>
-      <c r="H4">
-        <v>350</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
+        <v>336</v>
+      </c>
+      <c r="K4">
+        <v>800</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="1"/>
-        <v>392</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L6" si="2">B4+F4+J4+K4</f>
-        <v>2637</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>2333</v>
+      </c>
+      <c r="H5">
+        <v>2380</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="G5">
-        <v>302</v>
-      </c>
-      <c r="H5">
-        <v>350</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
+        <v>329</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>2624</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2000</v>
       </c>
       <c r="C6">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D6">
         <v>300</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>2334</v>
+      </c>
+      <c r="H6">
+        <v>2380</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="G6">
-        <v>303</v>
-      </c>
-      <c r="H6">
-        <v>350</v>
-      </c>
-      <c r="I6">
+        <v>322</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>2335</v>
+      </c>
+      <c r="H7">
+        <v>2380</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>256</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>2336</v>
+      </c>
+      <c r="H8">
+        <v>2380</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>257</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>2337</v>
+      </c>
+      <c r="H9">
+        <v>2380</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>376</v>
-      </c>
-      <c r="K6">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <v>258</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>2338</v>
+      </c>
+      <c r="H10">
+        <v>2380</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>259</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <v>2339</v>
+      </c>
+      <c r="H11">
+        <v>2380</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="K11">
+        <v>500</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <v>260</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>2340</v>
+      </c>
+      <c r="H12">
+        <v>2380</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>2611</v>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13">
+        <v>261</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>2341</v>
+      </c>
+      <c r="H13">
+        <v>2380</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>2673</v>
       </c>
     </row>
   </sheetData>
